--- a/CAP_TEAM05_2022/Uploads/Mau_Nhap_Lieu (13).xlsx
+++ b/CAP_TEAM05_2022/Uploads/Mau_Nhap_Lieu (13).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66487E65-849C-46F9-89C4-A7F350F0E6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F81A4C-3E40-47FE-9B92-7E3C49E8F7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4284" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,7 +489,7 @@
         <v>12000</v>
       </c>
       <c r="G2" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -510,9 +510,6 @@
       </c>
       <c r="F3" s="1">
         <v>12000</v>
-      </c>
-      <c r="G3" s="1">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/CAP_TEAM05_2022/Uploads/Mau_Nhap_Lieu (13).xlsx
+++ b/CAP_TEAM05_2022/Uploads/Mau_Nhap_Lieu (13).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F81A4C-3E40-47FE-9B92-7E3C49E8F7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2117B74F-7412-4D44-8C1D-F9B7912A623B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4284" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Tên sản phẩm</t>
   </si>
@@ -58,14 +58,23 @@
     <t>Test import 2</t>
   </si>
   <si>
-    <t>tgfg</t>
+    <t>Nhóm hàng 3222</t>
+  </si>
+  <si>
+    <t>Test import 3</t>
+  </si>
+  <si>
+    <t>Nhóm hàng sdasdsad</t>
+  </si>
+  <si>
+    <t>Danh m?c 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -75,13 +84,29 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -105,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -118,6 +143,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,8 +542,33 @@
       <c r="F3" s="1">
         <v>12000</v>
       </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>12000</v>
+      </c>
+      <c r="G4" s="6">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" errorStyle="information" showErrorMessage="1" errorTitle="Lỗi nhập nhóm hàng" error="Nhóm hàng này không có trong hệ thống, vui lòng chọn lại !" sqref="B2:B999998" xr:uid="{9D8C8892-F85D-454C-8E3C-E7C266E49402}">
       <formula1>"Nhóm hàng 2,Nhóm hàng 3222,Nhóm hàng 4,Nhóm hàng 6,Nhóm hàng 7sdđ,Nhóm hà,zsafsaf,Nhóm 5,Nhóm đfdfsgf,Phân bón s,đssss,dđ,âsa,âs,sss,ss,dđ,adđ,as,dđ,ddd,sadd,sss,sss,dáda,sdsdsd,sdsđs,sss4,sss,ww,dd,ddd,dưeewee,rewrw,dsad"</formula1>
